--- a/data/case1/11/cost_13.xlsx
+++ b/data/case1/11/cost_13.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>148.87860319589069</v>
+        <v>148.88767082968147</v>
       </c>
       <c r="B1" s="0">
-        <v>3.4480130832483802</v>
+        <v>3.6887964038245791</v>
       </c>
       <c r="C1" s="0">
-        <v>2.9517286366601434</v>
+        <v>2.5275603392041748</v>
       </c>
     </row>
   </sheetData>
